--- a/Gedung A/Laporan Produk Jadi Kabel - 线材成品.xlsx
+++ b/Gedung A/Laporan Produk Jadi Kabel - 线材成品.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>SPESIFIKASI</t>
   </si>
@@ -36,12 +36,6 @@
     <t>AX88</t>
   </si>
   <si>
-    <t>20230809004 20230814001</t>
-  </si>
-  <si>
-    <t>20230809032 20230815011</t>
-  </si>
-  <si>
     <t>USB 28+28+D</t>
   </si>
   <si>
@@ -103,6 +97,12 @@
   </si>
   <si>
     <t>7/0,127A+7/0,127A</t>
+  </si>
+  <si>
+    <t>AX89</t>
+  </si>
+  <si>
+    <t>W03-25040039 - Y</t>
   </si>
 </sst>
 </file>
@@ -153,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -239,11 +239,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -284,6 +295,12 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -311,6 +328,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:AL23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,312 +763,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+    </row>
+    <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+    </row>
+    <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+    </row>
+    <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+    </row>
+    <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+    </row>
+    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+    </row>
+    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="23"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-    </row>
-    <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-    </row>
-    <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-    </row>
-    <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-    </row>
-    <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="14"/>
-    </row>
-    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="14"/>
-    </row>
-    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="15" t="s">
+      <c r="AL7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL7" s="19" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="3">
         <v>45139</v>
       </c>
@@ -1135,18 +1159,18 @@
       <c r="AJ8" s="3">
         <v>45168</v>
       </c>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="19"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="21"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
         <v>20230809005</v>
@@ -1190,24 +1214,24 @@
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
     </row>
-    <row r="10" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>20230809004</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20230809032</v>
       </c>
       <c r="F10" s="11">
-        <v>61000</v>
+        <v>35000</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1244,74 +1268,74 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11" s="6">
-        <v>20230809006</v>
+        <v>20230814001</v>
       </c>
       <c r="E11" s="6">
-        <v>20230809034</v>
+        <v>20230815011</v>
       </c>
       <c r="F11" s="11">
-        <v>2486</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
+        <v>26000</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2">
-        <v>20230809003</v>
-      </c>
-      <c r="E12" s="2">
-        <v>20230809031</v>
-      </c>
-      <c r="F12" s="9">
-        <v>9075</v>
+        <v>11</v>
+      </c>
+      <c r="D12" s="6">
+        <v>20230809006</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20230809034</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2486</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1326,7 +1350,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="T12" s="5"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -1348,22 +1372,22 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2">
-        <v>20230809002</v>
-      </c>
-      <c r="E13" s="2">
-        <v>20230809030</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1360</v>
+        <v>11</v>
+      </c>
+      <c r="D13" s="6">
+        <v>20230825001</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20230825017</v>
+      </c>
+      <c r="F13" s="11">
+        <v>5514</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1378,7 +1402,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="T13" s="5"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -1400,22 +1424,22 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2">
-        <v>20230805001</v>
+        <v>20230809003</v>
       </c>
       <c r="E14" s="2">
-        <v>20230805018</v>
-      </c>
-      <c r="F14" s="12">
-        <v>5000</v>
+        <v>20230809031</v>
+      </c>
+      <c r="F14" s="9">
+        <v>9075</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1434,9 +1458,7 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-      <c r="X14" s="2">
-        <v>2469</v>
-      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
@@ -1449,33 +1471,27 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
-      <c r="AK14" s="13">
-        <f>SUM(G14:AJ14)</f>
-        <v>2469</v>
-      </c>
-      <c r="AL14" s="13">
-        <f>AK14-F14</f>
-        <v>-2531</v>
-      </c>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D15" s="2">
-        <v>20230816001</v>
+        <v>20230809002</v>
       </c>
       <c r="E15" s="2">
-        <v>20230816020</v>
-      </c>
-      <c r="F15" s="12">
-        <v>10000</v>
+        <v>20230809030</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1360</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1512,22 +1528,22 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D16" s="2">
-        <v>20230816002</v>
+        <v>20230805001</v>
       </c>
       <c r="E16" s="2">
-        <v>20230816021</v>
+        <v>20230805018</v>
       </c>
       <c r="F16" s="12">
-        <v>1490</v>
+        <v>5000</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1546,7 +1562,9 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
+      <c r="X16" s="2">
+        <v>2469</v>
+      </c>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
@@ -1559,27 +1577,33 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
+      <c r="AK16" s="13">
+        <f>SUM(G16:AJ16)</f>
+        <v>2469</v>
+      </c>
+      <c r="AL16" s="13">
+        <f>AK16-F16</f>
+        <v>-2531</v>
+      </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2">
-        <v>20230816003</v>
+        <v>20230816001</v>
       </c>
       <c r="E17" s="2">
-        <v>20230816022</v>
+        <v>20230816020</v>
       </c>
       <c r="F17" s="12">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1614,24 +1638,24 @@
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
     </row>
-    <row r="18" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2">
-        <v>20230822003</v>
-      </c>
-      <c r="E18" s="2">
-        <v>20230822016</v>
-      </c>
-      <c r="F18" s="12">
-        <v>20000</v>
+        <v>20</v>
+      </c>
+      <c r="D18" s="14">
+        <v>20230825003</v>
+      </c>
+      <c r="E18" s="14">
+        <v>20230825019</v>
+      </c>
+      <c r="F18" s="15">
+        <v>22400</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1646,9 +1670,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="2">
-        <v>8180</v>
-      </c>
+      <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -1665,14 +1687,276 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
-      <c r="AK18" s="13">
-        <f>SUM(G18:AJ18)</f>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20230816002</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20230816021</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1490</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2">
+        <v>20230825004</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20230825020</v>
+      </c>
+      <c r="F20" s="12">
+        <v>1960</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20230816003</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20230816022</v>
+      </c>
+      <c r="F21" s="12">
+        <v>3000</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+    </row>
+    <row r="22" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2">
+        <v>20230822003</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20230822016</v>
+      </c>
+      <c r="F22" s="12">
+        <v>20000</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2">
         <v>8180</v>
       </c>
-      <c r="AL18" s="13">
-        <f>AK18-F18</f>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="13">
+        <f>SUM(G22:AJ22)</f>
+        <v>8180</v>
+      </c>
+      <c r="AL22" s="13">
+        <f>AK22-F22</f>
         <v>-11820</v>
       </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="25">
+        <v>20230825002</v>
+      </c>
+      <c r="E23" s="25">
+        <v>20230825018</v>
+      </c>
+      <c r="F23" s="26">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1690,7 +1974,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="AK14 AK18" formulaRange="1"/>
+    <ignoredError sqref="AK16 AK22" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Gedung A/Laporan Produk Jadi Kabel - 线材成品.xlsx
+++ b/Gedung A/Laporan Produk Jadi Kabel - 线材成品.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Agustus 2023'!$A$1:$AL$23</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -254,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,6 +304,13 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -316,9 +326,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -328,13 +335,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,7 +372,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -422,7 +422,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:AL23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,312 +763,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
     </row>
     <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="16"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23"/>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="23"/>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="19" t="s">
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="AL7" s="21" t="s">
+      <c r="AL7" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="3">
         <v>45139</v>
       </c>
@@ -1159,8 +1159,8 @@
       <c r="AJ8" s="3">
         <v>45168</v>
       </c>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="21"/>
+      <c r="AK8" s="23"/>
+      <c r="AL8" s="23"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1916,60 +1916,60 @@
       <c r="C23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="16">
         <v>20230825002</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="16">
         <v>20230825018</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="17">
         <v>1000</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="27"/>
-      <c r="AK23" s="27"/>
-      <c r="AL23" s="27"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AK7:AK8"/>
+    <mergeCell ref="AL7:AL8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="G7:AJ7"/>
     <mergeCell ref="A1:AL6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="AL7:AL8"/>
-    <mergeCell ref="AK7:AK8"/>
-    <mergeCell ref="G7:AJ7"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Gedung A/Laporan Produk Jadi Kabel - 线材成品.xlsx
+++ b/Gedung A/Laporan Produk Jadi Kabel - 线材成品.xlsx
@@ -142,7 +142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +152,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -311,29 +317,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -341,6 +353,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -372,7 +389,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -422,7 +439,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -746,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:AL23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL19" sqref="AL19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,312 +780,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
     </row>
     <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="26"/>
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="26"/>
-      <c r="AK7" s="22" t="s">
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AL7" s="22" t="s">
+      <c r="AL7" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="3">
         <v>45139</v>
       </c>
@@ -1159,8 +1176,8 @@
       <c r="AJ8" s="3">
         <v>45168</v>
       </c>
-      <c r="AK8" s="23"/>
-      <c r="AL8" s="23"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="20"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1706,7 +1723,7 @@
       <c r="E19" s="2">
         <v>20230816021</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="28">
         <v>1490</v>
       </c>
       <c r="G19" s="2"/>
@@ -1737,10 +1754,18 @@
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
+      <c r="AI19" s="2">
+        <v>1490</v>
+      </c>
       <c r="AJ19" s="2"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
+      <c r="AK19" s="4">
+        <f>SUM(G19:AJ19)</f>
+        <v>1490</v>
+      </c>
+      <c r="AL19" s="27">
+        <f>AK19-F19</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -1960,6 +1985,7 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:AL6"/>
     <mergeCell ref="AK7:AK8"/>
     <mergeCell ref="AL7:AL8"/>
     <mergeCell ref="C7:C8"/>
@@ -1969,12 +1995,11 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="G7:AJ7"/>
-    <mergeCell ref="A1:AL6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="AK16 AK22" formulaRange="1"/>
+    <ignoredError sqref="AK16 AK22 AK19" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Gedung A/Laporan Produk Jadi Kabel - 线材成品.xlsx
+++ b/Gedung A/Laporan Produk Jadi Kabel - 线材成品.xlsx
@@ -263,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -317,6 +317,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -338,13 +347,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -389,7 +392,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -439,7 +442,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -763,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL19" sqref="AL19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,312 +783,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
     </row>
     <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="26"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="26"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="21"/>
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="26"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="19" t="s">
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="AL7" s="19" t="s">
+      <c r="AL7" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="3">
         <v>45139</v>
       </c>
@@ -1176,8 +1179,8 @@
       <c r="AJ8" s="3">
         <v>45168</v>
       </c>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="20"/>
+      <c r="AK8" s="23"/>
+      <c r="AL8" s="23"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1455,7 +1458,7 @@
       <c r="E14" s="2">
         <v>20230809031</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="29">
         <v>9075</v>
       </c>
       <c r="G14" s="2"/>
@@ -1486,10 +1489,18 @@
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
+      <c r="AI14" s="2">
+        <v>9075</v>
+      </c>
       <c r="AJ14" s="2"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
+      <c r="AK14" s="4">
+        <f>SUM(G14:AJ14)</f>
+        <v>9075</v>
+      </c>
+      <c r="AL14" s="19">
+        <f>AK14-F14</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -1650,10 +1661,18 @@
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
+      <c r="AI17" s="2">
+        <v>6294</v>
+      </c>
       <c r="AJ17" s="2"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
+      <c r="AK17" s="13">
+        <f>SUM(G17:AJ17)</f>
+        <v>6294</v>
+      </c>
+      <c r="AL17" s="13">
+        <f>AK17-F17</f>
+        <v>-3706</v>
+      </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -1723,7 +1742,7 @@
       <c r="E19" s="2">
         <v>20230816021</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="20">
         <v>1490</v>
       </c>
       <c r="G19" s="2"/>
@@ -1758,11 +1777,11 @@
         <v>1490</v>
       </c>
       <c r="AJ19" s="2"/>
-      <c r="AK19" s="4">
+      <c r="AK19" s="13">
         <f>SUM(G19:AJ19)</f>
         <v>1490</v>
       </c>
-      <c r="AL19" s="27">
+      <c r="AL19" s="19">
         <f>AK19-F19</f>
         <v>0</v>
       </c>
@@ -1999,7 +2018,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="AK16 AK22 AK19" formulaRange="1"/>
+    <ignoredError sqref="AK16:AK17 AK22 AK19 AK14" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Gedung A/Laporan Produk Jadi Kabel - 线材成品.xlsx
+++ b/Gedung A/Laporan Produk Jadi Kabel - 线材成品.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="208"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="272" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Agustus 2023" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="September 2023" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Agustus 2023'!$A$1:$AL$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Agustus 2023'!$A$7:$AL$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'September 2023'!$A$7:$AM$23</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="32">
   <si>
     <t>SPESIFIKASI</t>
   </si>
@@ -102,20 +103,30 @@
     <t>7/0,127A+7/0,127A</t>
   </si>
   <si>
-    <t>AX89</t>
+    <t>W03-25040039 - Y</t>
   </si>
   <si>
-    <t>W03-25040039 - Y</t>
+    <t>W03-25040039-Y</t>
+  </si>
+  <si>
+    <t>W03-25040028-Y</t>
+  </si>
+  <si>
+    <t>W03-25040029-Y</t>
+  </si>
+  <si>
+    <t>W03-25040030-Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
     <numFmt numFmtId="165" formatCode="#\ &quot;M&quot;"/>
     <numFmt numFmtId="166" formatCode="#\ &quot;PCS&quot;"/>
+    <numFmt numFmtId="167" formatCode="[$-409]mmm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -142,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +172,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -248,22 +265,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -304,12 +310,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -321,6 +321,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -347,7 +369,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -377,13 +399,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
+      <xdr:colOff>166963</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>80186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314882</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>140312</xdr:rowOff>
     </xdr:to>
@@ -414,8 +436,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9829799" y="80186"/>
-          <a:ext cx="762001" cy="1012626"/>
+          <a:off x="9927287" y="80186"/>
+          <a:ext cx="753036" cy="1012626"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -427,13 +449,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>193301</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>355226</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>129934</xdr:rowOff>
     </xdr:to>
@@ -464,8 +486,113 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15649575" y="57152"/>
-          <a:ext cx="771525" cy="1025282"/>
+          <a:off x="16004801" y="57152"/>
+          <a:ext cx="767043" cy="1025282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>166963</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314881</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>140312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9927287" y="80186"/>
+          <a:ext cx="753036" cy="1012626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>204507</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>366433</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>129934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16016007" y="57152"/>
+          <a:ext cx="767043" cy="1025282"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -764,10 +891,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL23"/>
+  <dimension ref="A1:AL25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,312 +913,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
     </row>
     <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="21"/>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="21"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="21"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="21"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="27"/>
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="22" t="s">
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AL7" s="22" t="s">
+      <c r="AL7" s="28" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="3">
         <v>45139</v>
       </c>
@@ -1179,8 +1309,8 @@
       <c r="AJ8" s="3">
         <v>45168</v>
       </c>
-      <c r="AK8" s="23"/>
-      <c r="AL8" s="23"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1288,7 +1418,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>24</v>
@@ -1458,7 +1588,7 @@
       <c r="E14" s="2">
         <v>20230809031</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="19">
         <v>9075</v>
       </c>
       <c r="G14" s="2"/>
@@ -1493,11 +1623,11 @@
         <v>9075</v>
       </c>
       <c r="AJ14" s="2"/>
-      <c r="AK14" s="4">
+      <c r="AK14" s="23">
         <f>SUM(G14:AJ14)</f>
         <v>9075</v>
       </c>
-      <c r="AL14" s="19">
+      <c r="AL14" s="17">
         <f>AK14-F14</f>
         <v>0</v>
       </c>
@@ -1734,16 +1864,16 @@
         <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="2">
-        <v>20230816002</v>
-      </c>
-      <c r="E19" s="2">
-        <v>20230816021</v>
-      </c>
-      <c r="F19" s="20">
-        <v>1490</v>
+        <v>20</v>
+      </c>
+      <c r="D19" s="14">
+        <v>20230904002</v>
+      </c>
+      <c r="E19" s="14">
+        <v>20230904013</v>
+      </c>
+      <c r="F19" s="15">
+        <v>5150</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1773,18 +1903,10 @@
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
-      <c r="AI19" s="2">
-        <v>1490</v>
-      </c>
+      <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
-      <c r="AK19" s="13">
-        <f>SUM(G19:AJ19)</f>
-        <v>1490</v>
-      </c>
-      <c r="AL19" s="19">
-        <f>AK19-F19</f>
-        <v>0</v>
-      </c>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -1797,13 +1919,13 @@
         <v>21</v>
       </c>
       <c r="D20" s="2">
-        <v>20230825004</v>
+        <v>20230816002</v>
       </c>
       <c r="E20" s="2">
-        <v>20230825020</v>
-      </c>
-      <c r="F20" s="12">
-        <v>1960</v>
+        <v>20230816021</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1490</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1833,10 +1955,18 @@
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
+      <c r="AI20" s="2">
+        <v>1490</v>
+      </c>
       <c r="AJ20" s="2"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
+      <c r="AK20" s="13">
+        <f>SUM(G20:AJ20)</f>
+        <v>1490</v>
+      </c>
+      <c r="AL20" s="17">
+        <f>AK20-F20</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
@@ -1846,16 +1976,16 @@
         <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2">
-        <v>20230816003</v>
+        <v>20230825004</v>
       </c>
       <c r="E21" s="2">
-        <v>20230816022</v>
+        <v>20230825020</v>
       </c>
       <c r="F21" s="12">
-        <v>3000</v>
+        <v>1960</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1890,24 +2020,24 @@
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
     </row>
-    <row r="22" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2">
-        <v>20230822003</v>
+        <v>20230904003</v>
       </c>
       <c r="E22" s="2">
-        <v>20230822016</v>
+        <v>20230904014</v>
       </c>
       <c r="F22" s="12">
-        <v>20000</v>
+        <v>5100</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1922,9 +2052,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="2">
-        <v>8180</v>
-      </c>
+      <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -1941,68 +2069,205 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
-      <c r="AK22" s="13">
-        <f>SUM(G22:AJ22)</f>
-        <v>8180</v>
-      </c>
-      <c r="AL22" s="13">
-        <f>AK22-F22</f>
-        <v>-11820</v>
-      </c>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2">
+        <v>20230816003</v>
+      </c>
+      <c r="E23" s="2">
+        <v>20230816022</v>
+      </c>
+      <c r="F23" s="12">
+        <v>3000</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+    </row>
+    <row r="24" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="16">
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2">
+        <v>20230822003</v>
+      </c>
+      <c r="E24" s="2">
+        <v>20230822016</v>
+      </c>
+      <c r="F24" s="12">
+        <v>20000</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2">
+        <v>8180</v>
+      </c>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="13">
+        <f>SUM(G24:AJ24)</f>
+        <v>8180</v>
+      </c>
+      <c r="AL24" s="13">
+        <f>AK24-F24</f>
+        <v>-11820</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="14">
         <v>20230825002</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E25" s="14">
         <v>20230825018</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F25" s="15">
         <v>1000</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="18"/>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="18"/>
-      <c r="AJ23" s="18"/>
-      <c r="AK23" s="18"/>
-      <c r="AL23" s="18"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="16"/>
+      <c r="AJ25" s="16"/>
+      <c r="AK25" s="16"/>
+      <c r="AL25" s="16"/>
     </row>
   </sheetData>
+  <autoFilter ref="A7:AL25">
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="11" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="13" showButton="0"/>
+    <filterColumn colId="14" showButton="0"/>
+    <filterColumn colId="15" showButton="0"/>
+    <filterColumn colId="16" showButton="0"/>
+    <filterColumn colId="17" showButton="0"/>
+    <filterColumn colId="18" showButton="0"/>
+    <filterColumn colId="19" showButton="0"/>
+    <filterColumn colId="20" showButton="0"/>
+    <filterColumn colId="21" showButton="0"/>
+    <filterColumn colId="22" showButton="0"/>
+    <filterColumn colId="23" showButton="0"/>
+    <filterColumn colId="24" showButton="0"/>
+    <filterColumn colId="25" showButton="0"/>
+    <filterColumn colId="26" showButton="0"/>
+    <filterColumn colId="27" showButton="0"/>
+    <filterColumn colId="28" showButton="0"/>
+    <filterColumn colId="29" showButton="0"/>
+    <filterColumn colId="30" showButton="0"/>
+    <filterColumn colId="31" showButton="0"/>
+    <filterColumn colId="32" showButton="0"/>
+    <filterColumn colId="33" showButton="0"/>
+    <filterColumn colId="34" showButton="0"/>
+  </autoFilter>
   <mergeCells count="10">
     <mergeCell ref="A1:AL6"/>
     <mergeCell ref="AK7:AK8"/>
@@ -2018,7 +2283,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="AK16:AK17 AK22 AK19 AK14" formulaRange="1"/>
+    <ignoredError sqref="AK16:AK17 AK24 AK20 AK14" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2026,13 +2291,1568 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="8" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="38" max="38" width="13" customWidth="1"/>
+    <col min="39" max="39" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+    </row>
+    <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+    </row>
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+    </row>
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+    </row>
+    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+    </row>
+    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="27"/>
+    </row>
+    <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM7" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="20">
+        <v>45169</v>
+      </c>
+      <c r="H8" s="3">
+        <v>45170</v>
+      </c>
+      <c r="I8" s="3">
+        <v>45171</v>
+      </c>
+      <c r="J8" s="3">
+        <v>45172</v>
+      </c>
+      <c r="K8" s="3">
+        <v>45173</v>
+      </c>
+      <c r="L8" s="3">
+        <v>45174</v>
+      </c>
+      <c r="M8" s="3">
+        <v>45175</v>
+      </c>
+      <c r="N8" s="3">
+        <v>45176</v>
+      </c>
+      <c r="O8" s="3">
+        <v>45177</v>
+      </c>
+      <c r="P8" s="3">
+        <v>45178</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>45179</v>
+      </c>
+      <c r="R8" s="3">
+        <v>45180</v>
+      </c>
+      <c r="S8" s="3">
+        <v>45181</v>
+      </c>
+      <c r="T8" s="3">
+        <v>45182</v>
+      </c>
+      <c r="U8" s="3">
+        <v>45183</v>
+      </c>
+      <c r="V8" s="3">
+        <v>45184</v>
+      </c>
+      <c r="W8" s="3">
+        <v>45185</v>
+      </c>
+      <c r="X8" s="3">
+        <v>45186</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>45187</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>45188</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>45189</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>45190</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>45191</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>45192</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>45193</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>45194</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>45195</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>45196</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>45197</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>45198</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>45199</v>
+      </c>
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20230809005</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20230809033</v>
+      </c>
+      <c r="F9" s="10">
+        <v>15000</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="4">
+        <f>SUM(G9:AK9)</f>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="13">
+        <f>AL9-F9</f>
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>20230809004</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20230809032</v>
+      </c>
+      <c r="F10" s="11">
+        <v>35000</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="4">
+        <f t="shared" ref="AL10:AL23" si="0">SUM(G10:AK10)</f>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="13">
+        <f t="shared" ref="AM10:AM23" si="1">AL10-F10</f>
+        <v>-35000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
+        <v>20230814001</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20230815011</v>
+      </c>
+      <c r="F11" s="11">
+        <v>26000</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="13">
+        <f t="shared" si="1"/>
+        <v>-26000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6">
+        <v>20230809006</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20230809034</v>
+      </c>
+      <c r="F12" s="24">
+        <v>2486</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2">
+        <v>2486</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="4">
+        <f t="shared" si="0"/>
+        <v>2486</v>
+      </c>
+      <c r="AM12" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6">
+        <v>20230825001</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20230825017</v>
+      </c>
+      <c r="F13" s="11">
+        <v>5514</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="13">
+        <f t="shared" si="1"/>
+        <v>-5514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>20230809002</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20230809030</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1360</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="23">
+        <f t="shared" si="1"/>
+        <v>-1360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20230805001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>20230805018</v>
+      </c>
+      <c r="F15" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G15" s="13">
+        <v>2469</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2">
+        <v>1216</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="13">
+        <f t="shared" si="0"/>
+        <v>3685</v>
+      </c>
+      <c r="AM15" s="25">
+        <f>AL15-F15</f>
+        <v>-1315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2">
+        <v>20230816001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20230816020</v>
+      </c>
+      <c r="F16" s="18">
+        <v>10000</v>
+      </c>
+      <c r="G16" s="13">
+        <v>6294</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2">
+        <v>3706</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="13">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="AM16" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="14">
+        <v>20230825003</v>
+      </c>
+      <c r="E17" s="14">
+        <v>20230825019</v>
+      </c>
+      <c r="F17" s="15">
+        <v>22400</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2">
+        <v>3511</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="4">
+        <f t="shared" si="0"/>
+        <v>3511</v>
+      </c>
+      <c r="AM17" s="26">
+        <f t="shared" si="1"/>
+        <v>-18889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="14">
+        <v>20230904002</v>
+      </c>
+      <c r="E18" s="14">
+        <v>20230904013</v>
+      </c>
+      <c r="F18" s="15">
+        <v>5150</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="13">
+        <f t="shared" si="1"/>
+        <v>-5150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20230825004</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20230825020</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1960</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="26">
+        <f t="shared" si="1"/>
+        <v>-1960</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2">
+        <v>20230904003</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20230904014</v>
+      </c>
+      <c r="F20" s="12">
+        <v>5100</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM20" s="13">
+        <f t="shared" si="1"/>
+        <v>-5100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20230816003</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20230816022</v>
+      </c>
+      <c r="F21" s="18">
+        <v>3000</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2">
+        <v>3000</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="4">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="AM21" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2">
+        <v>20230822003</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20230822016</v>
+      </c>
+      <c r="F22" s="18">
+        <v>20000</v>
+      </c>
+      <c r="G22" s="13">
+        <v>8180</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2">
+        <v>11820</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="13">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="AM22" s="17">
+        <f>AL22-F22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="14">
+        <v>20230825002</v>
+      </c>
+      <c r="E23" s="14">
+        <v>20230825018</v>
+      </c>
+      <c r="F23" s="15">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM23" s="13">
+        <f t="shared" si="1"/>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="14">
+        <v>20230905048</v>
+      </c>
+      <c r="E24" s="14">
+        <v>20230905026</v>
+      </c>
+      <c r="F24" s="15">
+        <v>7000</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="16"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="4">
+        <f t="shared" ref="AL24" si="2">SUM(G24:AK24)</f>
+        <v>0</v>
+      </c>
+      <c r="AM24" s="13">
+        <f t="shared" ref="AM24" si="3">AL24-F24</f>
+        <v>-7000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="14">
+        <v>20230905049</v>
+      </c>
+      <c r="E25" s="14">
+        <v>20230905027</v>
+      </c>
+      <c r="F25" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="16"/>
+      <c r="AJ25" s="16"/>
+      <c r="AK25" s="16"/>
+      <c r="AL25" s="4">
+        <f t="shared" ref="AL25" si="4">SUM(G25:AK25)</f>
+        <v>0</v>
+      </c>
+      <c r="AM25" s="13">
+        <f t="shared" ref="AM25" si="5">AL25-F25</f>
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="14">
+        <v>20230905050</v>
+      </c>
+      <c r="E26" s="14">
+        <v>20230905028</v>
+      </c>
+      <c r="F26" s="15">
+        <v>2570</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="16"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="4">
+        <f t="shared" ref="AL26" si="6">SUM(G26:AK26)</f>
+        <v>0</v>
+      </c>
+      <c r="AM26" s="13">
+        <f t="shared" ref="AM26" si="7">AL26-F26</f>
+        <v>-2570</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A7:AM23">
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="11" hiddenButton="1" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="13" showButton="0"/>
+    <filterColumn colId="14" showButton="0"/>
+    <filterColumn colId="15" showButton="0"/>
+    <filterColumn colId="16" showButton="0"/>
+    <filterColumn colId="17" showButton="0"/>
+    <filterColumn colId="18" showButton="0"/>
+    <filterColumn colId="19" showButton="0"/>
+    <filterColumn colId="20" showButton="0"/>
+    <filterColumn colId="21" showButton="0"/>
+    <filterColumn colId="22" showButton="0"/>
+    <filterColumn colId="23" showButton="0"/>
+    <filterColumn colId="24" showButton="0"/>
+    <filterColumn colId="25" showButton="0"/>
+    <filterColumn colId="26" showButton="0"/>
+    <filterColumn colId="27" showButton="0"/>
+    <filterColumn colId="28" showButton="0"/>
+    <filterColumn colId="29" showButton="0"/>
+    <filterColumn colId="30" showButton="0"/>
+    <filterColumn colId="31" showButton="0"/>
+    <filterColumn colId="32" showButton="0"/>
+    <filterColumn colId="33" showButton="0"/>
+    <filterColumn colId="34" showButton="0"/>
+    <filterColumn colId="35" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="10">
+    <mergeCell ref="A1:AM6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:AK7"/>
+    <mergeCell ref="AL7:AL8"/>
+    <mergeCell ref="AM7:AM8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="AL9:AL26" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Gedung A/Laporan Produk Jadi Kabel - 线材成品.xlsx
+++ b/Gedung A/Laporan Produk Jadi Kabel - 线材成品.xlsx
@@ -269,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -339,10 +339,10 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -368,9 +368,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,7 +411,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -464,7 +461,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -519,7 +516,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -569,7 +566,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,10 +2291,10 @@
   <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="8" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="8" topLeftCell="AF9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2750,7 +2747,9 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="2">
+        <v>4683</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -2774,11 +2773,11 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="4">
         <f>SUM(G9:AK9)</f>
-        <v>0</v>
+        <v>4683</v>
       </c>
       <c r="AM9" s="13">
         <f>AL9-F9</f>
-        <v>-15000</v>
+        <v>-10317</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
@@ -2809,9 +2808,13 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="P10" s="1">
+        <v>3000</v>
+      </c>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="R10" s="1">
+        <v>2774</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -2833,11 +2836,11 @@
       <c r="AK10" s="1"/>
       <c r="AL10" s="4">
         <f t="shared" ref="AL10:AL23" si="0">SUM(G10:AK10)</f>
-        <v>0</v>
+        <v>5774</v>
       </c>
       <c r="AM10" s="13">
         <f t="shared" ref="AM10:AM23" si="1">AL10-F10</f>
-        <v>-35000</v>
+        <v>-29226</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
@@ -2976,7 +2979,7 @@
       <c r="E13" s="6">
         <v>20230825017</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="24">
         <v>5514</v>
       </c>
       <c r="G13" s="4"/>
@@ -2992,7 +2995,9 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="T13" s="2">
+        <v>5514</v>
+      </c>
       <c r="U13" s="5"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -3012,11 +3017,11 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="4">
         <f t="shared" si="0"/>
+        <v>5514</v>
+      </c>
+      <c r="AM13" s="26">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="AM13" s="13">
-        <f t="shared" si="1"/>
-        <v>-5514</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
@@ -3094,7 +3099,7 @@
       <c r="E15" s="2">
         <v>20230805018</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="18">
         <v>5000</v>
       </c>
       <c r="G15" s="13">
@@ -3114,7 +3119,9 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="T15" s="2">
+        <v>1315</v>
+      </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
@@ -3134,11 +3141,11 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="13">
         <f t="shared" si="0"/>
-        <v>3685</v>
-      </c>
-      <c r="AM15" s="25">
+        <v>5000</v>
+      </c>
+      <c r="AM15" s="17">
         <f>AL15-F15</f>
-        <v>-1315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
@@ -3199,7 +3206,7 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="AM16" s="35">
+      <c r="AM16" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3239,7 +3246,9 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
+      <c r="U17" s="2">
+        <v>15883</v>
+      </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -3258,11 +3267,11 @@
       <c r="AK17" s="2"/>
       <c r="AL17" s="4">
         <f t="shared" si="0"/>
-        <v>3511</v>
-      </c>
-      <c r="AM17" s="26">
+        <v>19394</v>
+      </c>
+      <c r="AM17" s="25">
         <f t="shared" si="1"/>
-        <v>-18889</v>
+        <v>-3006</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
@@ -3378,7 +3387,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM19" s="26">
+      <c r="AM19" s="25">
         <f t="shared" si="1"/>
         <v>-1960</v>
       </c>
@@ -3498,7 +3507,7 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="AM21" s="35">
+      <c r="AM21" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3582,7 +3591,7 @@
       <c r="E23" s="14">
         <v>20230825018</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="18">
         <v>1000</v>
       </c>
       <c r="G23" s="22"/>
@@ -3598,7 +3607,9 @@
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
+      <c r="T23" s="2">
+        <v>1000</v>
+      </c>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
@@ -3618,11 +3629,11 @@
       <c r="AK23" s="16"/>
       <c r="AL23" s="4">
         <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="AM23" s="26">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="AM23" s="13">
-        <f t="shared" si="1"/>
-        <v>-1000</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
